--- a/excel/namaz-timings.xlsx
+++ b/excel/namaz-timings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Desktop\Falah-E-Kounaain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C0A71F-77C3-4C1B-8897-2AB68071D484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160" tabRatio="508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -39,69 +40,6 @@
   </si>
   <si>
     <t>isha</t>
-  </si>
-  <si>
-    <t>5:30am</t>
-  </si>
-  <si>
-    <t>1:30pm</t>
-  </si>
-  <si>
-    <t>1:25pm</t>
-  </si>
-  <si>
-    <t>5:10pm</t>
-  </si>
-  <si>
-    <t>6:50pm</t>
-  </si>
-  <si>
-    <t>6:52pm</t>
-  </si>
-  <si>
-    <t>8:30pm</t>
-  </si>
-  <si>
-    <t>4:44am</t>
-  </si>
-  <si>
-    <t>5:00am</t>
-  </si>
-  <si>
-    <t>5:58am</t>
-  </si>
-  <si>
-    <t>12:26pm</t>
-  </si>
-  <si>
-    <t>1:00pm</t>
-  </si>
-  <si>
-    <t>4:46pm</t>
-  </si>
-  <si>
-    <t>4:52pm</t>
-  </si>
-  <si>
-    <t>4:55pm</t>
-  </si>
-  <si>
-    <t>6:29pm</t>
-  </si>
-  <si>
-    <t>6:49pm</t>
-  </si>
-  <si>
-    <t>7:58pm</t>
-  </si>
-  <si>
-    <t>8:02pm</t>
-  </si>
-  <si>
-    <t>8:05pm</t>
-  </si>
-  <si>
-    <t>4:38am</t>
   </si>
   <si>
     <t>fajr-starts</t>
@@ -155,9 +93,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -188,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,277 +410,668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.08984375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.08984375" style="2" customWidth="1"/>
+    <col min="4" max="21" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45502</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
+      <c r="B2" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.19305555555555554</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45503</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>25</v>
+      <c r="B3" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.19305555555555554</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45504</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>25</v>
+      <c r="B4" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.19305555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/excel/namaz-timings.xlsx
+++ b/excel/namaz-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AECA63-5797-4504-AD0B-D67BA7533F40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473105B-4B0B-4482-8850-E41D092DA16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{177D3166-4ABD-4541-AB78-348152F0D8F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -89,106 +89,13 @@
   <si>
     <t>isha-ends</t>
   </si>
-  <si>
-    <t>12:18 PM</t>
-  </si>
-  <si>
-    <t>12:19 PM</t>
-  </si>
-  <si>
-    <t>12:20 PM</t>
-  </si>
-  <si>
-    <t>12:21 PM</t>
-  </si>
-  <si>
-    <t>12:22 PM</t>
-  </si>
-  <si>
-    <t>12:23 PM</t>
-  </si>
-  <si>
-    <t>12:24 PM</t>
-  </si>
-  <si>
-    <t>12:25 PM</t>
-  </si>
-  <si>
-    <t>12:26 PM</t>
-  </si>
-  <si>
-    <t>12:27 PM</t>
-  </si>
-  <si>
-    <t>12:28 PM</t>
-  </si>
-  <si>
-    <t>12:29 PM</t>
-  </si>
-  <si>
-    <t>12:17 PM</t>
-  </si>
-  <si>
-    <t>12:16 PM</t>
-  </si>
-  <si>
-    <t>12:15 PM</t>
-  </si>
-  <si>
-    <t>12:14 PM</t>
-  </si>
-  <si>
-    <t>12:13 PM</t>
-  </si>
-  <si>
-    <t>12:12 PM</t>
-  </si>
-  <si>
-    <t>12:11 PM</t>
-  </si>
-  <si>
-    <t>12:10 PM</t>
-  </si>
-  <si>
-    <t>12:09 PM</t>
-  </si>
-  <si>
-    <t>12:08 PM</t>
-  </si>
-  <si>
-    <t>12:07 PM</t>
-  </si>
-  <si>
-    <t>12:06 PM</t>
-  </si>
-  <si>
-    <t>12:05 PM</t>
-  </si>
-  <si>
-    <t>12:04 PM</t>
-  </si>
-  <si>
-    <t>12:03 PM</t>
-  </si>
-  <si>
-    <t>12:02 PM</t>
-  </si>
-  <si>
-    <t>12:01 PM</t>
-  </si>
-  <si>
-    <t>12:00 PM</t>
-  </si>
-  <si>
-    <t>11:59 AM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -236,8 +143,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -576,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76418707-A48B-4FA8-AE4A-555DBDCFC2C1}">
   <dimension ref="A1:U375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -679,8 +586,8 @@
       <c r="E2" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
+      <c r="F2" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G2" s="1">
         <v>0.54166666666666696</v>
@@ -744,8 +651,8 @@
       <c r="E3" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
+      <c r="F3" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G3" s="1">
         <v>0.54166666666666696</v>
@@ -809,8 +716,8 @@
       <c r="E4" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
+      <c r="F4" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G4" s="1">
         <v>0.54166666666666696</v>
@@ -874,8 +781,8 @@
       <c r="E5" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
+      <c r="F5" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G5" s="1">
         <v>0.54166666666666696</v>
@@ -939,8 +846,8 @@
       <c r="E6" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
+      <c r="F6" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G6" s="1">
         <v>0.54166666666666696</v>
@@ -1004,8 +911,8 @@
       <c r="E7" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+      <c r="F7" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G7" s="1">
         <v>0.54166666666666696</v>
@@ -1069,8 +976,8 @@
       <c r="E8" s="1">
         <v>0.27638888888888902</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
+      <c r="F8" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G8" s="1">
         <v>0.54166666666666696</v>
@@ -1134,8 +1041,8 @@
       <c r="E9" s="1">
         <v>0.27638888888888902</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="F9" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G9" s="1">
         <v>0.54166666666666696</v>
@@ -1199,8 +1106,8 @@
       <c r="E10" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
+      <c r="F10" s="1">
+        <v>0.51527777777777783</v>
       </c>
       <c r="G10" s="1">
         <v>0.54166666666666696</v>
@@ -1264,8 +1171,8 @@
       <c r="E11" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
+      <c r="F11" s="1">
+        <v>0.51527777777777783</v>
       </c>
       <c r="G11" s="1">
         <v>0.54166666666666696</v>
@@ -1329,8 +1236,8 @@
       <c r="E12" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
+      <c r="F12" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G12" s="1">
         <v>0.54166666666666696</v>
@@ -1394,8 +1301,8 @@
       <c r="E13" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="F13" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G13" s="1">
         <v>0.54166666666666696</v>
@@ -1459,8 +1366,8 @@
       <c r="E14" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
+      <c r="F14" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G14" s="1">
         <v>0.54166666666666696</v>
@@ -1524,8 +1431,8 @@
       <c r="E15" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
+      <c r="F15" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G15" s="1">
         <v>0.54166666666666696</v>
@@ -1589,8 +1496,8 @@
       <c r="E16" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
+      <c r="F16" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G16" s="1">
         <v>0.54166666666666696</v>
@@ -1654,8 +1561,8 @@
       <c r="E17" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
+      <c r="F17" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G17" s="1">
         <v>0.54166666666666696</v>
@@ -1719,8 +1626,8 @@
       <c r="E18" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
+      <c r="F18" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G18" s="1">
         <v>0.54166666666666696</v>
@@ -1784,8 +1691,8 @@
       <c r="E19" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
+      <c r="F19" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G19" s="1">
         <v>0.54166666666666696</v>
@@ -1849,8 +1756,8 @@
       <c r="E20" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
+      <c r="F20" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G20" s="1">
         <v>0.54166666666666696</v>
@@ -1914,8 +1821,8 @@
       <c r="E21" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
+      <c r="F21" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G21" s="1">
         <v>0.54166666666666696</v>
@@ -1979,8 +1886,8 @@
       <c r="E22" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
+      <c r="F22" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G22" s="1">
         <v>0.54166666666666696</v>
@@ -2044,8 +1951,8 @@
       <c r="E23" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
+      <c r="F23" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G23" s="1">
         <v>0.54166666666666696</v>
@@ -2109,8 +2016,8 @@
       <c r="E24" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
+      <c r="F24" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G24" s="1">
         <v>0.54166666666666696</v>
@@ -2174,8 +2081,8 @@
       <c r="E25" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
+      <c r="F25" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G25" s="1">
         <v>0.54166666666666696</v>
@@ -2239,8 +2146,8 @@
       <c r="E26" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
+      <c r="F26" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G26" s="1">
         <v>0.54166666666666696</v>
@@ -2304,8 +2211,8 @@
       <c r="E27" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
+      <c r="F27" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G27" s="1">
         <v>0.54166666666666696</v>
@@ -2369,8 +2276,8 @@
       <c r="E28" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
+      <c r="F28" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G28" s="1">
         <v>0.54166666666666696</v>
@@ -2434,8 +2341,8 @@
       <c r="E29" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
+      <c r="F29" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G29" s="1">
         <v>0.54166666666666696</v>
@@ -2499,8 +2406,8 @@
       <c r="E30" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
+      <c r="F30" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G30" s="1">
         <v>0.54166666666666696</v>
@@ -2564,8 +2471,8 @@
       <c r="E31" s="1">
         <v>0.27847222222222201</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
+      <c r="F31" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G31" s="1">
         <v>0.54166666666666696</v>
@@ -2629,8 +2536,8 @@
       <c r="E32" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>31</v>
+      <c r="F32" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G32" s="1">
         <v>0.54166666666666696</v>
@@ -2694,8 +2601,8 @@
       <c r="E33" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
+      <c r="F33" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G33" s="1">
         <v>0.54166666666666696</v>
@@ -2759,8 +2666,8 @@
       <c r="E34" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
+      <c r="F34" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G34" s="1">
         <v>0.54166666666666696</v>
@@ -2824,8 +2731,8 @@
       <c r="E35" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
+      <c r="F35" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G35" s="1">
         <v>0.54166666666666696</v>
@@ -2889,8 +2796,8 @@
       <c r="E36" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>32</v>
+      <c r="F36" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G36" s="1">
         <v>0.54166666666666696</v>
@@ -2954,8 +2861,8 @@
       <c r="E37" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>32</v>
+      <c r="F37" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G37" s="1">
         <v>0.54166666666666696</v>
@@ -3019,8 +2926,8 @@
       <c r="E38" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
+      <c r="F38" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G38" s="1">
         <v>0.54166666666666696</v>
@@ -3084,8 +2991,8 @@
       <c r="E39" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
+      <c r="F39" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G39" s="1">
         <v>0.54166666666666696</v>
@@ -3149,8 +3056,8 @@
       <c r="E40" s="1">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
+      <c r="F40" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G40" s="1">
         <v>0.54166666666666696</v>
@@ -3214,8 +3121,8 @@
       <c r="E41" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
+      <c r="F41" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G41" s="1">
         <v>0.54166666666666696</v>
@@ -3279,8 +3186,8 @@
       <c r="E42" s="1">
         <v>0.27708333333333302</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
+      <c r="F42" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G42" s="1">
         <v>0.54166666666666696</v>
@@ -3344,8 +3251,8 @@
       <c r="E43" s="1">
         <v>0.27638888888888902</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
+      <c r="F43" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G43" s="1">
         <v>0.54166666666666696</v>
@@ -3409,8 +3316,8 @@
       <c r="E44" s="1">
         <v>0.27638888888888902</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
+      <c r="F44" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G44" s="1">
         <v>0.54166666666666696</v>
@@ -3474,8 +3381,8 @@
       <c r="E45" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>32</v>
+      <c r="F45" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G45" s="1">
         <v>0.54166666666666696</v>
@@ -3539,8 +3446,8 @@
       <c r="E46" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>32</v>
+      <c r="F46" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G46" s="1">
         <v>0.54166666666666696</v>
@@ -3604,8 +3511,8 @@
       <c r="E47" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>32</v>
+      <c r="F47" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G47" s="1">
         <v>0.54166666666666696</v>
@@ -3669,8 +3576,8 @@
       <c r="E48" s="1">
         <v>0.27569444444444402</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>32</v>
+      <c r="F48" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G48" s="1">
         <v>0.54166666666666696</v>
@@ -3734,8 +3641,8 @@
       <c r="E49" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>32</v>
+      <c r="F49" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G49" s="1">
         <v>0.54166666666666696</v>
@@ -3799,8 +3706,8 @@
       <c r="E50" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>32</v>
+      <c r="F50" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G50" s="1">
         <v>0.54166666666666696</v>
@@ -3864,8 +3771,8 @@
       <c r="E51" s="1">
         <v>0.27430555555555602</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>32</v>
+      <c r="F51" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G51" s="1">
         <v>0.54166666666666696</v>
@@ -3929,8 +3836,8 @@
       <c r="E52" s="1">
         <v>0.27430555555555602</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>32</v>
+      <c r="F52" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G52" s="1">
         <v>0.54166666666666696</v>
@@ -3994,8 +3901,8 @@
       <c r="E53" s="1">
         <v>0.27361111111111103</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>32</v>
+      <c r="F53" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G53" s="1">
         <v>0.54166666666666696</v>
@@ -4059,8 +3966,8 @@
       <c r="E54" s="1">
         <v>0.27361111111111103</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>32</v>
+      <c r="F54" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G54" s="1">
         <v>0.54166666666666696</v>
@@ -4124,8 +4031,8 @@
       <c r="E55" s="1">
         <v>0.27291666666666697</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>32</v>
+      <c r="F55" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G55" s="1">
         <v>0.54166666666666696</v>
@@ -4189,8 +4096,8 @@
       <c r="E56" s="1">
         <v>0.27291666666666697</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>32</v>
+      <c r="F56" s="1">
+        <v>0.52013888888888882</v>
       </c>
       <c r="G56" s="1">
         <v>0.54166666666666696</v>
@@ -4254,8 +4161,8 @@
       <c r="E57" s="1">
         <v>0.27222222222222198</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>31</v>
+      <c r="F57" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G57" s="1">
         <v>0.54166666666666696</v>
@@ -4319,8 +4226,8 @@
       <c r="E58" s="1">
         <v>0.27222222222222198</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>31</v>
+      <c r="F58" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G58" s="1">
         <v>0.54166666666666696</v>
@@ -4384,8 +4291,8 @@
       <c r="E59" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>31</v>
+      <c r="F59" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G59" s="1">
         <v>0.54166666666666696</v>
@@ -4449,8 +4356,8 @@
       <c r="E60" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>31</v>
+      <c r="F60" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G60" s="1">
         <v>0.54166666666666696</v>
@@ -4514,8 +4421,8 @@
       <c r="E61" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>31</v>
+      <c r="F61" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G61" s="1">
         <v>0.54166666666666696</v>
@@ -4579,8 +4486,8 @@
       <c r="E62" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>31</v>
+      <c r="F62" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G62" s="1">
         <v>0.54166666666666696</v>
@@ -4644,8 +4551,8 @@
       <c r="E63" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>31</v>
+      <c r="F63" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G63" s="1">
         <v>0.54166666666666696</v>
@@ -4709,8 +4616,8 @@
       <c r="E64" s="1">
         <v>0.27013888888888898</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>30</v>
+      <c r="F64" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G64" s="1">
         <v>0.54166666666666696</v>
@@ -4774,8 +4681,8 @@
       <c r="E65" s="1">
         <v>0.27013888888888898</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>30</v>
+      <c r="F65" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G65" s="1">
         <v>0.54166666666666696</v>
@@ -4839,8 +4746,8 @@
       <c r="E66" s="1">
         <v>0.26944444444444399</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>30</v>
+      <c r="F66" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G66" s="1">
         <v>0.54166666666666696</v>
@@ -4904,8 +4811,8 @@
       <c r="E67" s="1">
         <v>0.26944444444444399</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>30</v>
+      <c r="F67" s="1">
+        <v>0.51874999999999993</v>
       </c>
       <c r="G67" s="1">
         <v>0.54166666666666696</v>
@@ -4969,8 +4876,8 @@
       <c r="E68" s="1">
         <v>0.26874999999999999</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>29</v>
+      <c r="F68" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G68" s="1">
         <v>0.54166666666666696</v>
@@ -5034,8 +4941,8 @@
       <c r="E69" s="1">
         <v>0.26874999999999999</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>29</v>
+      <c r="F69" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G69" s="1">
         <v>0.54166666666666696</v>
@@ -5099,8 +5006,8 @@
       <c r="E70" s="1">
         <v>0.26805555555555599</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>29</v>
+      <c r="F70" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G70" s="1">
         <v>0.54166666666666696</v>
@@ -5164,8 +5071,8 @@
       <c r="E71" s="1">
         <v>0.26805555555555599</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>29</v>
+      <c r="F71" s="1">
+        <v>0.5180555555555556</v>
       </c>
       <c r="G71" s="1">
         <v>0.54166666666666696</v>
@@ -5229,8 +5136,8 @@
       <c r="E72" s="1">
         <v>0.266666666666667</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>28</v>
+      <c r="F72" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G72" s="1">
         <v>0.54166666666666696</v>
@@ -5294,8 +5201,8 @@
       <c r="E73" s="1">
         <v>0.266666666666667</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>28</v>
+      <c r="F73" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G73" s="1">
         <v>0.54166666666666696</v>
@@ -5359,8 +5266,8 @@
       <c r="E74" s="1">
         <v>0.265972222222222</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>28</v>
+      <c r="F74" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G74" s="1">
         <v>0.54166666666666696</v>
@@ -5424,8 +5331,8 @@
       <c r="E75" s="1">
         <v>0.265972222222222</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>28</v>
+      <c r="F75" s="1">
+        <v>0.51736111111111105</v>
       </c>
       <c r="G75" s="1">
         <v>0.54166666666666696</v>
@@ -5489,8 +5396,8 @@
       <c r="E76" s="1">
         <v>0.265277777777778</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>27</v>
+      <c r="F76" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G76" s="1">
         <v>0.54166666666666696</v>
@@ -5554,8 +5461,8 @@
       <c r="E77" s="1">
         <v>0.265277777777778</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>27</v>
+      <c r="F77" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G77" s="1">
         <v>0.54166666666666696</v>
@@ -5619,8 +5526,8 @@
       <c r="E78" s="1">
         <v>0.264583333333333</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>27</v>
+      <c r="F78" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G78" s="1">
         <v>0.54166666666666696</v>
@@ -5684,8 +5591,8 @@
       <c r="E79" s="1">
         <v>0.264583333333333</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>27</v>
+      <c r="F79" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G79" s="1">
         <v>0.54166666666666696</v>
@@ -5749,8 +5656,8 @@
       <c r="E80" s="1">
         <v>0.26319444444444401</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>27</v>
+      <c r="F80" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G80" s="1">
         <v>0.54166666666666696</v>
@@ -5814,8 +5721,8 @@
       <c r="E81" s="1">
         <v>0.26319444444444401</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>27</v>
+      <c r="F81" s="1">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G81" s="1">
         <v>0.54166666666666696</v>
@@ -5879,8 +5786,8 @@
       <c r="E82" s="1">
         <v>0.26250000000000001</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>26</v>
+      <c r="F82" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G82" s="1">
         <v>0.54166666666666696</v>
@@ -5944,8 +5851,8 @@
       <c r="E83" s="1">
         <v>0.26250000000000001</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>26</v>
+      <c r="F83" s="1">
+        <v>0.51597222222222217</v>
       </c>
       <c r="G83" s="1">
         <v>0.54166666666666696</v>
@@ -6009,8 +5916,8 @@
       <c r="E84" s="1">
         <v>0.26180555555555601</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>25</v>
+      <c r="F84" s="1">
+        <v>0.51527777777777783</v>
       </c>
       <c r="G84" s="1">
         <v>0.54166666666666696</v>
@@ -6074,8 +5981,8 @@
       <c r="E85" s="1">
         <v>0.26180555555555601</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>25</v>
+      <c r="F85" s="1">
+        <v>0.51527777777777783</v>
       </c>
       <c r="G85" s="1">
         <v>0.54166666666666696</v>
@@ -6139,8 +6046,8 @@
       <c r="E86" s="1">
         <v>0.26041666666666702</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>24</v>
+      <c r="F86" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G86" s="1">
         <v>0.54166666666666696</v>
@@ -6204,8 +6111,8 @@
       <c r="E87" s="1">
         <v>0.26041666666666702</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>24</v>
+      <c r="F87" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G87" s="1">
         <v>0.54166666666666696</v>
@@ -6269,8 +6176,8 @@
       <c r="E88" s="1">
         <v>0.25972222222222202</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>24</v>
+      <c r="F88" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G88" s="1">
         <v>0.54166666666666696</v>
@@ -6334,8 +6241,8 @@
       <c r="E89" s="1">
         <v>0.25972222222222202</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>24</v>
+      <c r="F89" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G89" s="1">
         <v>0.54166666666666696</v>
@@ -6399,8 +6306,8 @@
       <c r="E90" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>23</v>
+      <c r="F90" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G90" s="1">
         <v>0.54166666666666696</v>
@@ -6464,8 +6371,8 @@
       <c r="E91" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>23</v>
+      <c r="F91" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G91" s="1">
         <v>0.54166666666666696</v>
@@ -6529,8 +6436,8 @@
       <c r="E92" s="1">
         <v>0.25763888888888897</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>22</v>
+      <c r="F92" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G92" s="1">
         <v>0.54166666666666696</v>
@@ -6594,8 +6501,8 @@
       <c r="E93" s="1">
         <v>0.25763888888888897</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>22</v>
+      <c r="F93" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G93" s="1">
         <v>0.54166666666666696</v>
@@ -6659,8 +6566,8 @@
       <c r="E94" s="1">
         <v>0.25763888888888897</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>22</v>
+      <c r="F94" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G94" s="1">
         <v>0.54166666666666696</v>
@@ -6724,8 +6631,8 @@
       <c r="E95" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>22</v>
+      <c r="F95" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G95" s="1">
         <v>0.54166666666666696</v>
@@ -6789,8 +6696,8 @@
       <c r="E96" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>22</v>
+      <c r="F96" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G96" s="1">
         <v>0.54166666666666696</v>
@@ -6854,8 +6761,8 @@
       <c r="E97" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>21</v>
+      <c r="F97" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G97" s="1">
         <v>0.54166666666666696</v>
@@ -6919,8 +6826,8 @@
       <c r="E98" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>21</v>
+      <c r="F98" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G98" s="1">
         <v>0.54166666666666696</v>
@@ -6984,8 +6891,8 @@
       <c r="E99" s="1">
         <v>0.25486111111111098</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>33</v>
+      <c r="F99" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G99" s="1">
         <v>0.54166666666666696</v>
@@ -7049,8 +6956,8 @@
       <c r="E100" s="1">
         <v>0.25486111111111098</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>33</v>
+      <c r="F100" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G100" s="1">
         <v>0.54166666666666696</v>
@@ -7114,8 +7021,8 @@
       <c r="E101" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>33</v>
+      <c r="F101" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G101" s="1">
         <v>0.54166666666666696</v>
@@ -7179,8 +7086,8 @@
       <c r="E102" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>33</v>
+      <c r="F102" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G102" s="1">
         <v>0.54166666666666696</v>
@@ -7244,8 +7151,8 @@
       <c r="E103" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>34</v>
+      <c r="F103" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G103" s="1">
         <v>0.54166666666666696</v>
@@ -7309,8 +7216,8 @@
       <c r="E104" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>34</v>
+      <c r="F104" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G104" s="1">
         <v>0.54166666666666696</v>
@@ -7374,8 +7281,8 @@
       <c r="E105" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>34</v>
+      <c r="F105" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G105" s="1">
         <v>0.54166666666666696</v>
@@ -7439,8 +7346,8 @@
       <c r="E106" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>34</v>
+      <c r="F106" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G106" s="1">
         <v>0.54166666666666696</v>
@@ -7504,8 +7411,8 @@
       <c r="E107" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>35</v>
+      <c r="F107" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G107" s="1">
         <v>0.54166666666666696</v>
@@ -7569,8 +7476,8 @@
       <c r="E108" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>35</v>
+      <c r="F108" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G108" s="1">
         <v>0.54166666666666696</v>
@@ -7634,8 +7541,8 @@
       <c r="E109" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>35</v>
+      <c r="F109" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G109" s="1">
         <v>0.54166666666666696</v>
@@ -7699,8 +7606,8 @@
       <c r="E110" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>35</v>
+      <c r="F110" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G110" s="1">
         <v>0.54166666666666696</v>
@@ -7764,8 +7671,8 @@
       <c r="E111" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>36</v>
+      <c r="F111" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G111" s="1">
         <v>0.54166666666666696</v>
@@ -7829,8 +7736,8 @@
       <c r="E112" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>36</v>
+      <c r="F112" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G112" s="1">
         <v>0.54166666666666696</v>
@@ -7894,8 +7801,8 @@
       <c r="E113" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>36</v>
+      <c r="F113" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G113" s="1">
         <v>0.54166666666666696</v>
@@ -7959,8 +7866,8 @@
       <c r="E114" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>36</v>
+      <c r="F114" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G114" s="1">
         <v>0.54166666666666696</v>
@@ -8024,8 +7931,8 @@
       <c r="E115" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>36</v>
+      <c r="F115" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G115" s="1">
         <v>0.54166666666666696</v>
@@ -8089,8 +7996,8 @@
       <c r="E116" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>36</v>
+      <c r="F116" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G116" s="1">
         <v>0.54166666666666696</v>
@@ -8154,8 +8061,8 @@
       <c r="E117" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>37</v>
+      <c r="F117" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G117" s="1">
         <v>0.54166666666666696</v>
@@ -8219,8 +8126,8 @@
       <c r="E118" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>37</v>
+      <c r="F118" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G118" s="1">
         <v>0.54166666666666696</v>
@@ -8284,8 +8191,8 @@
       <c r="E119" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
+      <c r="F119" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G119" s="1">
         <v>0.54166666666666696</v>
@@ -8349,8 +8256,8 @@
       <c r="E120" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>37</v>
+      <c r="F120" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G120" s="1">
         <v>0.54166666666666696</v>
@@ -8414,8 +8321,8 @@
       <c r="E121" s="1">
         <v>0.24583333333333299</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>38</v>
+      <c r="F121" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G121" s="1">
         <v>0.54166666666666696</v>
@@ -8479,8 +8386,8 @@
       <c r="E122" s="1">
         <v>0.24583333333333299</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>38</v>
+      <c r="F122" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G122" s="1">
         <v>0.54166666666666696</v>
@@ -8544,8 +8451,8 @@
       <c r="E123" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>38</v>
+      <c r="F123" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G123" s="1">
         <v>0.54166666666666696</v>
@@ -8609,8 +8516,8 @@
       <c r="E124" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>38</v>
+      <c r="F124" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G124" s="1">
         <v>0.54166666666666696</v>
@@ -8674,8 +8581,8 @@
       <c r="E125" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>38</v>
+      <c r="F125" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G125" s="1">
         <v>0.54166666666666696</v>
@@ -8739,8 +8646,8 @@
       <c r="E126" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>38</v>
+      <c r="F126" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G126" s="1">
         <v>0.54166666666666696</v>
@@ -8804,8 +8711,8 @@
       <c r="E127" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>38</v>
+      <c r="F127" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G127" s="1">
         <v>0.54166666666666696</v>
@@ -8869,8 +8776,8 @@
       <c r="E128" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>38</v>
+      <c r="F128" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G128" s="1">
         <v>0.54166666666666696</v>
@@ -8934,8 +8841,8 @@
       <c r="E129" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>38</v>
+      <c r="F129" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G129" s="1">
         <v>0.54166666666666696</v>
@@ -8999,8 +8906,8 @@
       <c r="E130" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>38</v>
+      <c r="F130" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G130" s="1">
         <v>0.54166666666666696</v>
@@ -9064,8 +8971,8 @@
       <c r="E131" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>39</v>
+      <c r="F131" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G131" s="1">
         <v>0.54166666666666696</v>
@@ -9129,8 +9036,8 @@
       <c r="E132" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>39</v>
+      <c r="F132" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G132" s="1">
         <v>0.54166666666666696</v>
@@ -9194,8 +9101,8 @@
       <c r="E133" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>39</v>
+      <c r="F133" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G133" s="1">
         <v>0.54166666666666696</v>
@@ -9259,8 +9166,8 @@
       <c r="E134" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>39</v>
+      <c r="F134" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G134" s="1">
         <v>0.54166666666666696</v>
@@ -9324,8 +9231,8 @@
       <c r="E135" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>39</v>
+      <c r="F135" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G135" s="1">
         <v>0.54166666666666696</v>
@@ -9389,8 +9296,8 @@
       <c r="E136" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>39</v>
+      <c r="F136" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G136" s="1">
         <v>0.54166666666666696</v>
@@ -9454,8 +9361,8 @@
       <c r="E137" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>39</v>
+      <c r="F137" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G137" s="1">
         <v>0.54166666666666696</v>
@@ -9519,8 +9426,8 @@
       <c r="E138" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>39</v>
+      <c r="F138" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G138" s="1">
         <v>0.54166666666666696</v>
@@ -9584,8 +9491,8 @@
       <c r="E139" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>39</v>
+      <c r="F139" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G139" s="1">
         <v>0.54166666666666696</v>
@@ -9649,8 +9556,8 @@
       <c r="E140" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>39</v>
+      <c r="F140" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G140" s="1">
         <v>0.54166666666666696</v>
@@ -9714,8 +9621,8 @@
       <c r="E141" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>39</v>
+      <c r="F141" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G141" s="1">
         <v>0.54166666666666696</v>
@@ -9779,8 +9686,8 @@
       <c r="E142" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>39</v>
+      <c r="F142" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G142" s="1">
         <v>0.54166666666666696</v>
@@ -9844,8 +9751,8 @@
       <c r="E143" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>39</v>
+      <c r="F143" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G143" s="1">
         <v>0.54166666666666696</v>
@@ -9909,8 +9816,8 @@
       <c r="E144" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>39</v>
+      <c r="F144" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G144" s="1">
         <v>0.54166666666666696</v>
@@ -9974,8 +9881,8 @@
       <c r="E145" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>38</v>
+      <c r="F145" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G145" s="1">
         <v>0.54166666666666696</v>
@@ -10039,8 +9946,8 @@
       <c r="E146" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>38</v>
+      <c r="F146" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G146" s="1">
         <v>0.54166666666666696</v>
@@ -10104,8 +10011,8 @@
       <c r="E147" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>38</v>
+      <c r="F147" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G147" s="1">
         <v>0.54166666666666696</v>
@@ -10169,8 +10076,8 @@
       <c r="E148" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>38</v>
+      <c r="F148" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G148" s="1">
         <v>0.54166666666666696</v>
@@ -10234,8 +10141,8 @@
       <c r="E149" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>38</v>
+      <c r="F149" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G149" s="1">
         <v>0.54166666666666696</v>
@@ -10299,8 +10206,8 @@
       <c r="E150" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>38</v>
+      <c r="F150" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G150" s="1">
         <v>0.54166666666666696</v>
@@ -10364,8 +10271,8 @@
       <c r="E151" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>38</v>
+      <c r="F151" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G151" s="1">
         <v>0.54166666666666696</v>
@@ -10429,8 +10336,8 @@
       <c r="E152" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>38</v>
+      <c r="F152" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G152" s="1">
         <v>0.54166666666666696</v>
@@ -10494,8 +10401,8 @@
       <c r="E153" s="1">
         <v>0.24027777777777801</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>38</v>
+      <c r="F153" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G153" s="1">
         <v>0.54166666666666696</v>
@@ -10559,8 +10466,8 @@
       <c r="E154" s="1">
         <v>0.24027777777777801</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>37</v>
+      <c r="F154" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G154" s="1">
         <v>0.54166666666666696</v>
@@ -10624,8 +10531,8 @@
       <c r="E155" s="1">
         <v>0.24027777777777801</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>37</v>
+      <c r="F155" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G155" s="1">
         <v>0.54166666666666696</v>
@@ -10689,8 +10596,8 @@
       <c r="E156" s="1">
         <v>0.24027777777777801</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>37</v>
+      <c r="F156" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G156" s="1">
         <v>0.54166666666666696</v>
@@ -10754,8 +10661,8 @@
       <c r="E157" s="1">
         <v>0.24027777777777801</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>37</v>
+      <c r="F157" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G157" s="1">
         <v>0.54166666666666696</v>
@@ -10819,8 +10726,8 @@
       <c r="E158" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>37</v>
+      <c r="F158" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G158" s="1">
         <v>0.54166666666666696</v>
@@ -10884,8 +10791,8 @@
       <c r="E159" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>37</v>
+      <c r="F159" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G159" s="1">
         <v>0.54166666666666696</v>
@@ -10949,8 +10856,8 @@
       <c r="E160" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>36</v>
+      <c r="F160" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G160" s="1">
         <v>0.54166666666666696</v>
@@ -11014,8 +10921,8 @@
       <c r="E161" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>36</v>
+      <c r="F161" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G161" s="1">
         <v>0.54166666666666696</v>
@@ -11079,8 +10986,8 @@
       <c r="E162" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>36</v>
+      <c r="F162" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G162" s="1">
         <v>0.54166666666666696</v>
@@ -11144,8 +11051,8 @@
       <c r="E163" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>36</v>
+      <c r="F163" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G163" s="1">
         <v>0.54166666666666696</v>
@@ -11209,8 +11116,8 @@
       <c r="E164" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>36</v>
+      <c r="F164" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G164" s="1">
         <v>0.54166666666666696</v>
@@ -11274,8 +11181,8 @@
       <c r="E165" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>36</v>
+      <c r="F165" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G165" s="1">
         <v>0.54166666666666696</v>
@@ -11339,8 +11246,8 @@
       <c r="E166" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>35</v>
+      <c r="F166" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G166" s="1">
         <v>0.54166666666666696</v>
@@ -11404,8 +11311,8 @@
       <c r="E167" s="1">
         <v>0.240972222222222</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>35</v>
+      <c r="F167" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G167" s="1">
         <v>0.54166666666666696</v>
@@ -11469,8 +11376,8 @@
       <c r="E168" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>35</v>
+      <c r="F168" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G168" s="1">
         <v>0.54166666666666696</v>
@@ -11534,8 +11441,8 @@
       <c r="E169" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>35</v>
+      <c r="F169" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G169" s="1">
         <v>0.54166666666666696</v>
@@ -11599,8 +11506,8 @@
       <c r="E170" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>34</v>
+      <c r="F170" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G170" s="1">
         <v>0.54166666666666696</v>
@@ -11664,8 +11571,8 @@
       <c r="E171" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>34</v>
+      <c r="F171" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G171" s="1">
         <v>0.54166666666666696</v>
@@ -11729,8 +11636,8 @@
       <c r="E172" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>34</v>
+      <c r="F172" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G172" s="1">
         <v>0.54166666666666696</v>
@@ -11794,8 +11701,8 @@
       <c r="E173" s="1">
         <v>0.241666666666667</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>34</v>
+      <c r="F173" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G173" s="1">
         <v>0.54166666666666696</v>
@@ -11859,8 +11766,8 @@
       <c r="E174" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>34</v>
+      <c r="F174" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G174" s="1">
         <v>0.54166666666666696</v>
@@ -11924,8 +11831,8 @@
       <c r="E175" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>34</v>
+      <c r="F175" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G175" s="1">
         <v>0.54166666666666696</v>
@@ -11989,8 +11896,8 @@
       <c r="E176" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>33</v>
+      <c r="F176" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G176" s="1">
         <v>0.54166666666666696</v>
@@ -12054,8 +11961,8 @@
       <c r="E177" s="1">
         <v>0.242361111111111</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>33</v>
+      <c r="F177" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G177" s="1">
         <v>0.54166666666666696</v>
@@ -12119,8 +12026,8 @@
       <c r="E178" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>33</v>
+      <c r="F178" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G178" s="1">
         <v>0.54166666666666696</v>
@@ -12184,8 +12091,8 @@
       <c r="E179" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>33</v>
+      <c r="F179" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G179" s="1">
         <v>0.54166666666666696</v>
@@ -12249,8 +12156,8 @@
       <c r="E180" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>21</v>
+      <c r="F180" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G180" s="1">
         <v>0.54166666666666696</v>
@@ -12314,8 +12221,8 @@
       <c r="E181" s="1">
         <v>0.243055555555556</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>21</v>
+      <c r="F181" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G181" s="1">
         <v>0.54166666666666696</v>
@@ -12379,8 +12286,8 @@
       <c r="E182" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>21</v>
+      <c r="F182" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G182" s="1">
         <v>0.54166666666666696</v>
@@ -12444,8 +12351,8 @@
       <c r="E183" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>21</v>
+      <c r="F183" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G183" s="1">
         <v>0.54166666666666696</v>
@@ -12509,8 +12416,8 @@
       <c r="E184" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>22</v>
+      <c r="F184" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G184" s="1">
         <v>0.54166666666666696</v>
@@ -12574,8 +12481,8 @@
       <c r="E185" s="1">
         <v>0.24374999999999999</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>22</v>
+      <c r="F185" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G185" s="1">
         <v>0.54166666666666696</v>
@@ -12639,8 +12546,8 @@
       <c r="E186" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>22</v>
+      <c r="F186" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G186" s="1">
         <v>0.54166666666666696</v>
@@ -12704,8 +12611,8 @@
       <c r="E187" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>22</v>
+      <c r="F187" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G187" s="1">
         <v>0.54166666666666696</v>
@@ -12769,8 +12676,8 @@
       <c r="E188" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>22</v>
+      <c r="F188" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G188" s="1">
         <v>0.54166666666666696</v>
@@ -12834,8 +12741,8 @@
       <c r="E189" s="1">
         <v>0.24444444444444399</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>22</v>
+      <c r="F189" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G189" s="1">
         <v>0.54166666666666696</v>
@@ -12899,8 +12806,8 @@
       <c r="E190" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>23</v>
+      <c r="F190" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G190" s="1">
         <v>0.54166666666666696</v>
@@ -12964,8 +12871,8 @@
       <c r="E191" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>23</v>
+      <c r="F191" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G191" s="1">
         <v>0.54166666666666696</v>
@@ -13029,8 +12936,8 @@
       <c r="E192" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>23</v>
+      <c r="F192" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G192" s="1">
         <v>0.54166666666666696</v>
@@ -13094,8 +13001,8 @@
       <c r="E193" s="1">
         <v>0.24513888888888899</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>23</v>
+      <c r="F193" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G193" s="1">
         <v>0.54166666666666696</v>
@@ -13159,8 +13066,8 @@
       <c r="E194" s="1">
         <v>0.24583333333333299</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>23</v>
+      <c r="F194" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G194" s="1">
         <v>0.54166666666666696</v>
@@ -13224,8 +13131,8 @@
       <c r="E195" s="1">
         <v>0.24583333333333299</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>23</v>
+      <c r="F195" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G195" s="1">
         <v>0.54166666666666696</v>
@@ -13289,8 +13196,8 @@
       <c r="E196" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>24</v>
+      <c r="F196" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G196" s="1">
         <v>0.54166666666666696</v>
@@ -13354,8 +13261,8 @@
       <c r="E197" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>24</v>
+      <c r="F197" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G197" s="1">
         <v>0.54166666666666696</v>
@@ -13419,8 +13326,8 @@
       <c r="E198" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>24</v>
+      <c r="F198" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G198" s="1">
         <v>0.54166666666666696</v>
@@ -13484,8 +13391,8 @@
       <c r="E199" s="1">
         <v>0.24652777777777801</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>24</v>
+      <c r="F199" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G199" s="1">
         <v>0.54166666666666696</v>
@@ -13549,8 +13456,8 @@
       <c r="E200" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>24</v>
+      <c r="F200" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G200" s="1">
         <v>0.54166666666666696</v>
@@ -13614,8 +13521,8 @@
       <c r="E201" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>24</v>
+      <c r="F201" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G201" s="1">
         <v>0.54166666666666696</v>
@@ -13679,8 +13586,8 @@
       <c r="E202" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>24</v>
+      <c r="F202" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G202" s="1">
         <v>0.54166666666666696</v>
@@ -13744,8 +13651,8 @@
       <c r="E203" s="1">
         <v>0.24722222222222201</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>24</v>
+      <c r="F203" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G203" s="1">
         <v>0.54166666666666696</v>
@@ -13809,8 +13716,8 @@
       <c r="E204" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>24</v>
+      <c r="F204" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G204" s="1">
         <v>0.54166666666666696</v>
@@ -13874,8 +13781,8 @@
       <c r="E205" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>24</v>
+      <c r="F205" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G205" s="1">
         <v>0.54166666666666696</v>
@@ -13939,8 +13846,8 @@
       <c r="E206" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>24</v>
+      <c r="F206" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G206" s="1">
         <v>0.54166666666666696</v>
@@ -14004,8 +13911,8 @@
       <c r="E207" s="1">
         <v>0.24791666666666701</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>24</v>
+      <c r="F207" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G207" s="1">
         <v>0.54166666666666696</v>
@@ -14069,8 +13976,8 @@
       <c r="E208" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>24</v>
+      <c r="F208" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G208" s="1">
         <v>0.54166666666666696</v>
@@ -14134,8 +14041,8 @@
       <c r="E209" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>24</v>
+      <c r="F209" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G209" s="1">
         <v>0.54166666666666696</v>
@@ -14199,8 +14106,8 @@
       <c r="E210" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>24</v>
+      <c r="F210" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G210" s="1">
         <v>0.54166666666666696</v>
@@ -14264,8 +14171,8 @@
       <c r="E211" s="1">
         <v>0.24861111111111101</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>24</v>
+      <c r="F211" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G211" s="1">
         <v>0.54166666666666696</v>
@@ -14329,8 +14236,8 @@
       <c r="E212" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>24</v>
+      <c r="F212" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G212" s="1">
         <v>0.54166666666666696</v>
@@ -14394,8 +14301,8 @@
       <c r="E213" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>24</v>
+      <c r="F213" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G213" s="1">
         <v>0.54166666666666696</v>
@@ -14459,8 +14366,8 @@
       <c r="E214" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>24</v>
+      <c r="F214" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G214" s="1">
         <v>0.54166666666666696</v>
@@ -14524,8 +14431,8 @@
       <c r="E215" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>24</v>
+      <c r="F215" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G215" s="1">
         <v>0.54166666666666696</v>
@@ -14589,8 +14496,8 @@
       <c r="E216" s="1">
         <v>0.249305555555556</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>24</v>
+      <c r="F216" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G216" s="1">
         <v>0.54166666666666696</v>
@@ -14654,8 +14561,8 @@
       <c r="E217" s="1">
         <v>0.25</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>24</v>
+      <c r="F217" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G217" s="1">
         <v>0.54166666666666696</v>
@@ -14719,8 +14626,8 @@
       <c r="E218" s="1">
         <v>0.25</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>24</v>
+      <c r="F218" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G218" s="1">
         <v>0.54166666666666696</v>
@@ -14784,8 +14691,8 @@
       <c r="E219" s="1">
         <v>0.25</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>24</v>
+      <c r="F219" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G219" s="1">
         <v>0.54166666666666696</v>
@@ -14849,8 +14756,8 @@
       <c r="E220" s="1">
         <v>0.25</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>24</v>
+      <c r="F220" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G220" s="1">
         <v>0.54166666666666696</v>
@@ -14914,8 +14821,8 @@
       <c r="E221" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>24</v>
+      <c r="F221" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G221" s="1">
         <v>0.54166666666666696</v>
@@ -14979,8 +14886,8 @@
       <c r="E222" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>24</v>
+      <c r="F222" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G222" s="1">
         <v>0.54166666666666696</v>
@@ -15044,8 +14951,8 @@
       <c r="E223" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>24</v>
+      <c r="F223" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G223" s="1">
         <v>0.54166666666666696</v>
@@ -15109,8 +15016,8 @@
       <c r="E224" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>24</v>
+      <c r="F224" s="1">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G224" s="1">
         <v>0.54166666666666696</v>
@@ -15174,8 +15081,8 @@
       <c r="E225" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>23</v>
+      <c r="F225" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G225" s="1">
         <v>0.54166666666666696</v>
@@ -15239,8 +15146,8 @@
       <c r="E226" s="1">
         <v>0.250694444444444</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>23</v>
+      <c r="F226" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G226" s="1">
         <v>0.54166666666666696</v>
@@ -15304,8 +15211,8 @@
       <c r="E227" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>23</v>
+      <c r="F227" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G227" s="1">
         <v>0.54166666666666696</v>
@@ -15369,8 +15276,8 @@
       <c r="E228" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>23</v>
+      <c r="F228" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G228" s="1">
         <v>0.54166666666666696</v>
@@ -15434,8 +15341,8 @@
       <c r="E229" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>23</v>
+      <c r="F229" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G229" s="1">
         <v>0.54166666666666696</v>
@@ -15499,8 +15406,8 @@
       <c r="E230" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>23</v>
+      <c r="F230" s="1">
+        <v>0.51388888888888895</v>
       </c>
       <c r="G230" s="1">
         <v>0.54166666666666696</v>
@@ -15564,8 +15471,8 @@
       <c r="E231" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>22</v>
+      <c r="F231" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G231" s="1">
         <v>0.54166666666666696</v>
@@ -15629,8 +15536,8 @@
       <c r="E232" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>22</v>
+      <c r="F232" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G232" s="1">
         <v>0.54166666666666696</v>
@@ -15694,8 +15601,8 @@
       <c r="E233" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>22</v>
+      <c r="F233" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G233" s="1">
         <v>0.54166666666666696</v>
@@ -15759,8 +15666,8 @@
       <c r="E234" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>22</v>
+      <c r="F234" s="1">
+        <v>0.5131944444444444</v>
       </c>
       <c r="G234" s="1">
         <v>0.54166666666666696</v>
@@ -15824,8 +15731,8 @@
       <c r="E235" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>21</v>
+      <c r="F235" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G235" s="1">
         <v>0.54166666666666696</v>
@@ -15889,8 +15796,8 @@
       <c r="E236" s="1">
         <v>0.25138888888888899</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>21</v>
+      <c r="F236" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G236" s="1">
         <v>0.54166666666666696</v>
@@ -15954,8 +15861,8 @@
       <c r="E237" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>21</v>
+      <c r="F237" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G237" s="1">
         <v>0.54166666666666696</v>
@@ -16019,8 +15926,8 @@
       <c r="E238" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>21</v>
+      <c r="F238" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G238" s="1">
         <v>0.54166666666666696</v>
@@ -16084,8 +15991,8 @@
       <c r="E239" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>33</v>
+      <c r="F239" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G239" s="1">
         <v>0.54166666666666696</v>
@@ -16149,8 +16056,8 @@
       <c r="E240" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>33</v>
+      <c r="F240" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G240" s="1">
         <v>0.54166666666666696</v>
@@ -16214,8 +16121,8 @@
       <c r="E241" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>33</v>
+      <c r="F241" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G241" s="1">
         <v>0.54166666666666696</v>
@@ -16279,8 +16186,8 @@
       <c r="E242" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>33</v>
+      <c r="F242" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G242" s="1">
         <v>0.54166666666666696</v>
@@ -16344,8 +16251,8 @@
       <c r="E243" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>34</v>
+      <c r="F243" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G243" s="1">
         <v>0.54166666666666696</v>
@@ -16409,8 +16316,8 @@
       <c r="E244" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>34</v>
+      <c r="F244" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G244" s="1">
         <v>0.54166666666666696</v>
@@ -16474,8 +16381,8 @@
       <c r="E245" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>34</v>
+      <c r="F245" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G245" s="1">
         <v>0.54166666666666696</v>
@@ -16539,8 +16446,8 @@
       <c r="E246" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>35</v>
+      <c r="F246" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G246" s="1">
         <v>0.54166666666666696</v>
@@ -16604,8 +16511,8 @@
       <c r="E247" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>35</v>
+      <c r="F247" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G247" s="1">
         <v>0.54166666666666696</v>
@@ -16669,8 +16576,8 @@
       <c r="E248" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>35</v>
+      <c r="F248" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G248" s="1">
         <v>0.54166666666666696</v>
@@ -16734,8 +16641,8 @@
       <c r="E249" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>35</v>
+      <c r="F249" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G249" s="1">
         <v>0.54166666666666696</v>
@@ -16799,8 +16706,8 @@
       <c r="E250" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>36</v>
+      <c r="F250" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G250" s="1">
         <v>0.54166666666666696</v>
@@ -16864,8 +16771,8 @@
       <c r="E251" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>36</v>
+      <c r="F251" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G251" s="1">
         <v>0.54166666666666696</v>
@@ -16929,8 +16836,8 @@
       <c r="E252" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>37</v>
+      <c r="F252" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G252" s="1">
         <v>0.54166666666666696</v>
@@ -16994,8 +16901,8 @@
       <c r="E253" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>37</v>
+      <c r="F253" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G253" s="1">
         <v>0.54166666666666696</v>
@@ -17059,8 +16966,8 @@
       <c r="E254" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>37</v>
+      <c r="F254" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G254" s="1">
         <v>0.54166666666666696</v>
@@ -17124,8 +17031,8 @@
       <c r="E255" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>37</v>
+      <c r="F255" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G255" s="1">
         <v>0.54166666666666696</v>
@@ -17189,8 +17096,8 @@
       <c r="E256" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>38</v>
+      <c r="F256" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G256" s="1">
         <v>0.54166666666666696</v>
@@ -17254,8 +17161,8 @@
       <c r="E257" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>38</v>
+      <c r="F257" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G257" s="1">
         <v>0.54166666666666696</v>
@@ -17319,8 +17226,8 @@
       <c r="E258" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>39</v>
+      <c r="F258" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G258" s="1">
         <v>0.54166666666666696</v>
@@ -17384,8 +17291,8 @@
       <c r="E259" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>39</v>
+      <c r="F259" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G259" s="1">
         <v>0.54166666666666696</v>
@@ -17449,8 +17356,8 @@
       <c r="E260" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>39</v>
+      <c r="F260" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G260" s="1">
         <v>0.54166666666666696</v>
@@ -17514,8 +17421,8 @@
       <c r="E261" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>39</v>
+      <c r="F261" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G261" s="1">
         <v>0.54166666666666696</v>
@@ -17579,8 +17486,8 @@
       <c r="E262" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>40</v>
+      <c r="F262" s="1">
+        <v>0.50694444444444442</v>
       </c>
       <c r="G262" s="1">
         <v>0.54166666666666696</v>
@@ -17644,8 +17551,8 @@
       <c r="E263" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>40</v>
+      <c r="F263" s="1">
+        <v>0.50694444444444442</v>
       </c>
       <c r="G263" s="1">
         <v>0.54166666666666696</v>
@@ -17709,8 +17616,8 @@
       <c r="E264" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>41</v>
+      <c r="F264" s="1">
+        <v>0.50624999999999998</v>
       </c>
       <c r="G264" s="1">
         <v>0.54166666666666696</v>
@@ -17774,8 +17681,8 @@
       <c r="E265" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>41</v>
+      <c r="F265" s="1">
+        <v>0.50624999999999998</v>
       </c>
       <c r="G265" s="1">
         <v>0.54166666666666696</v>
@@ -17839,8 +17746,8 @@
       <c r="E266" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>42</v>
+      <c r="F266" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G266" s="1">
         <v>0.54166666666666696</v>
@@ -17904,8 +17811,8 @@
       <c r="E267" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>42</v>
+      <c r="F267" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G267" s="1">
         <v>0.54166666666666696</v>
@@ -17969,8 +17876,8 @@
       <c r="E268" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>42</v>
+      <c r="F268" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G268" s="1">
         <v>0.54166666666666696</v>
@@ -18034,8 +17941,8 @@
       <c r="E269" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>42</v>
+      <c r="F269" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G269" s="1">
         <v>0.54166666666666696</v>
@@ -18099,8 +18006,8 @@
       <c r="E270" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>43</v>
+      <c r="F270" s="1">
+        <v>0.50486111111111109</v>
       </c>
       <c r="G270" s="1">
         <v>0.54166666666666696</v>
@@ -18164,8 +18071,8 @@
       <c r="E271" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>43</v>
+      <c r="F271" s="1">
+        <v>0.50486111111111109</v>
       </c>
       <c r="G271" s="1">
         <v>0.54166666666666696</v>
@@ -18229,8 +18136,8 @@
       <c r="E272" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F272" s="1" t="s">
-        <v>44</v>
+      <c r="F272" s="1">
+        <v>0.50416666666666665</v>
       </c>
       <c r="G272" s="1">
         <v>0.54166666666666696</v>
@@ -18294,8 +18201,8 @@
       <c r="E273" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F273" s="1" t="s">
-        <v>44</v>
+      <c r="F273" s="1">
+        <v>0.50416666666666665</v>
       </c>
       <c r="G273" s="1">
         <v>0.54166666666666696</v>
@@ -18359,8 +18266,8 @@
       <c r="E274" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F274" s="1" t="s">
-        <v>45</v>
+      <c r="F274" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G274" s="1">
         <v>0.54166666666666696</v>
@@ -18424,8 +18331,8 @@
       <c r="E275" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>45</v>
+      <c r="F275" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G275" s="1">
         <v>0.54166666666666696</v>
@@ -18489,8 +18396,8 @@
       <c r="E276" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F276" s="1" t="s">
-        <v>45</v>
+      <c r="F276" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G276" s="1">
         <v>0.54166666666666696</v>
@@ -18554,8 +18461,8 @@
       <c r="E277" s="1">
         <v>0.25208333333333299</v>
       </c>
-      <c r="F277" s="1" t="s">
-        <v>45</v>
+      <c r="F277" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G277" s="1">
         <v>0.54166666666666696</v>
@@ -18619,8 +18526,8 @@
       <c r="E278" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F278" s="1" t="s">
-        <v>46</v>
+      <c r="F278" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G278" s="1">
         <v>0.54166666666666696</v>
@@ -18684,8 +18591,8 @@
       <c r="E279" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>46</v>
+      <c r="F279" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G279" s="1">
         <v>0.54166666666666696</v>
@@ -18749,8 +18656,8 @@
       <c r="E280" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>46</v>
+      <c r="F280" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G280" s="1">
         <v>0.54166666666666696</v>
@@ -18814,8 +18721,8 @@
       <c r="E281" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F281" s="1" t="s">
-        <v>46</v>
+      <c r="F281" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G281" s="1">
         <v>0.54166666666666696</v>
@@ -18879,8 +18786,8 @@
       <c r="E282" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F282" s="1" t="s">
-        <v>47</v>
+      <c r="F282" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G282" s="1">
         <v>0.54166666666666696</v>
@@ -18944,8 +18851,8 @@
       <c r="E283" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F283" s="1" t="s">
-        <v>47</v>
+      <c r="F283" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G283" s="1">
         <v>0.54166666666666696</v>
@@ -19009,8 +18916,8 @@
       <c r="E284" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F284" s="1" t="s">
-        <v>47</v>
+      <c r="F284" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G284" s="1">
         <v>0.54166666666666696</v>
@@ -19074,8 +18981,8 @@
       <c r="E285" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>47</v>
+      <c r="F285" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G285" s="1">
         <v>0.54166666666666696</v>
@@ -19139,8 +19046,8 @@
       <c r="E286" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F286" s="1" t="s">
-        <v>48</v>
+      <c r="F286" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G286" s="1">
         <v>0.54166666666666696</v>
@@ -19204,8 +19111,8 @@
       <c r="E287" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F287" s="1" t="s">
-        <v>48</v>
+      <c r="F287" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G287" s="1">
         <v>0.54166666666666696</v>
@@ -19269,8 +19176,8 @@
       <c r="E288" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>49</v>
+      <c r="F288" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G288" s="1">
         <v>0.54166666666666696</v>
@@ -19334,8 +19241,8 @@
       <c r="E289" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F289" s="1" t="s">
-        <v>49</v>
+      <c r="F289" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G289" s="1">
         <v>0.54166666666666696</v>
@@ -19399,8 +19306,8 @@
       <c r="E290" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>49</v>
+      <c r="F290" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G290" s="1">
         <v>0.54166666666666696</v>
@@ -19464,8 +19371,8 @@
       <c r="E291" s="1">
         <v>0.25277777777777799</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>49</v>
+      <c r="F291" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G291" s="1">
         <v>0.54166666666666696</v>
@@ -19529,8 +19436,8 @@
       <c r="E292" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>49</v>
+      <c r="F292" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G292" s="1">
         <v>0.54166666666666696</v>
@@ -19594,8 +19501,8 @@
       <c r="E293" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F293" s="1" t="s">
-        <v>49</v>
+      <c r="F293" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G293" s="1">
         <v>0.54166666666666696</v>
@@ -19659,8 +19566,8 @@
       <c r="E294" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F294" s="1" t="s">
-        <v>50</v>
+      <c r="F294" s="1">
+        <v>0.5</v>
       </c>
       <c r="G294" s="1">
         <v>0.54166666666666696</v>
@@ -19724,8 +19631,8 @@
       <c r="E295" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>50</v>
+      <c r="F295" s="1">
+        <v>0.5</v>
       </c>
       <c r="G295" s="1">
         <v>0.54166666666666696</v>
@@ -19789,8 +19696,8 @@
       <c r="E296" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>50</v>
+      <c r="F296" s="1">
+        <v>0.5</v>
       </c>
       <c r="G296" s="1">
         <v>0.54166666666666696</v>
@@ -19854,8 +19761,8 @@
       <c r="E297" s="1">
         <v>0.25347222222222199</v>
       </c>
-      <c r="F297" s="1" t="s">
-        <v>50</v>
+      <c r="F297" s="1">
+        <v>0.5</v>
       </c>
       <c r="G297" s="1">
         <v>0.54166666666666696</v>
@@ -19919,8 +19826,8 @@
       <c r="E298" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>51</v>
+      <c r="F298" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G298" s="1">
         <v>0.54166666666666696</v>
@@ -19984,8 +19891,8 @@
       <c r="E299" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>51</v>
+      <c r="F299" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G299" s="1">
         <v>0.54166666666666696</v>
@@ -20049,8 +19956,8 @@
       <c r="E300" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F300" s="1" t="s">
-        <v>51</v>
+      <c r="F300" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G300" s="1">
         <v>0.54166666666666696</v>
@@ -20114,8 +20021,8 @@
       <c r="E301" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F301" s="1" t="s">
-        <v>51</v>
+      <c r="F301" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G301" s="1">
         <v>0.54166666666666696</v>
@@ -20179,8 +20086,8 @@
       <c r="E302" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>51</v>
+      <c r="F302" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G302" s="1">
         <v>0.54166666666666696</v>
@@ -20244,8 +20151,8 @@
       <c r="E303" s="1">
         <v>0.25416666666666698</v>
       </c>
-      <c r="F303" s="1" t="s">
-        <v>51</v>
+      <c r="F303" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G303" s="1">
         <v>0.54166666666666696</v>
@@ -20309,8 +20216,8 @@
       <c r="E304" s="1">
         <v>0.25486111111111098</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>51</v>
+      <c r="F304" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G304" s="1">
         <v>0.54166666666666696</v>
@@ -20374,8 +20281,8 @@
       <c r="E305" s="1">
         <v>0.25486111111111098</v>
       </c>
-      <c r="F305" s="1" t="s">
-        <v>51</v>
+      <c r="F305" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G305" s="1">
         <v>0.54166666666666696</v>
@@ -20439,8 +20346,8 @@
       <c r="E306" s="1">
         <v>0.25486111111111098</v>
       </c>
-      <c r="F306" s="1" t="s">
-        <v>51</v>
+      <c r="F306" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G306" s="1">
         <v>0.54166666666666696</v>
@@ -20504,8 +20411,8 @@
       <c r="E307" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F307" s="1" t="s">
-        <v>51</v>
+      <c r="F307" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G307" s="1">
         <v>0.54166666666666696</v>
@@ -20569,8 +20476,8 @@
       <c r="E308" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F308" s="1" t="s">
-        <v>51</v>
+      <c r="F308" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G308" s="1">
         <v>0.54166666666666696</v>
@@ -20634,8 +20541,8 @@
       <c r="E309" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>51</v>
+      <c r="F309" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G309" s="1">
         <v>0.54166666666666696</v>
@@ -20699,8 +20606,8 @@
       <c r="E310" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="F310" s="1" t="s">
-        <v>51</v>
+      <c r="F310" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G310" s="1">
         <v>0.54166666666666696</v>
@@ -20764,8 +20671,8 @@
       <c r="E311" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F311" s="1" t="s">
-        <v>51</v>
+      <c r="F311" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G311" s="1">
         <v>0.54166666666666696</v>
@@ -20829,8 +20736,8 @@
       <c r="E312" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F312" s="1" t="s">
-        <v>51</v>
+      <c r="F312" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G312" s="1">
         <v>0.54166666666666696</v>
@@ -20894,8 +20801,8 @@
       <c r="E313" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>51</v>
+      <c r="F313" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G313" s="1">
         <v>0.54166666666666696</v>
@@ -20959,8 +20866,8 @@
       <c r="E314" s="1">
         <v>0.25624999999999998</v>
       </c>
-      <c r="F314" s="1" t="s">
-        <v>51</v>
+      <c r="F314" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G314" s="1">
         <v>0.54166666666666696</v>
@@ -21024,8 +20931,8 @@
       <c r="E315" s="1">
         <v>0.25694444444444398</v>
       </c>
-      <c r="F315" s="1" t="s">
-        <v>51</v>
+      <c r="F315" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G315" s="1">
         <v>0.54166666666666696</v>
@@ -21089,8 +20996,8 @@
       <c r="E316" s="1">
         <v>0.25694444444444398</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>51</v>
+      <c r="F316" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G316" s="1">
         <v>0.54166666666666696</v>
@@ -21154,8 +21061,8 @@
       <c r="E317" s="1">
         <v>0.25763888888888897</v>
       </c>
-      <c r="F317" s="1" t="s">
-        <v>51</v>
+      <c r="F317" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G317" s="1">
         <v>0.54166666666666696</v>
@@ -21219,8 +21126,8 @@
       <c r="E318" s="1">
         <v>0.25763888888888897</v>
       </c>
-      <c r="F318" s="1" t="s">
-        <v>51</v>
+      <c r="F318" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G318" s="1">
         <v>0.54166666666666696</v>
@@ -21284,8 +21191,8 @@
       <c r="E319" s="1">
         <v>0.25833333333333303</v>
       </c>
-      <c r="F319" s="1" t="s">
-        <v>51</v>
+      <c r="F319" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G319" s="1">
         <v>0.54166666666666696</v>
@@ -21349,8 +21256,8 @@
       <c r="E320" s="1">
         <v>0.25833333333333303</v>
       </c>
-      <c r="F320" s="1" t="s">
-        <v>51</v>
+      <c r="F320" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G320" s="1">
         <v>0.54166666666666696</v>
@@ -21414,8 +21321,8 @@
       <c r="E321" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F321" s="1" t="s">
-        <v>51</v>
+      <c r="F321" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G321" s="1">
         <v>0.54166666666666696</v>
@@ -21479,8 +21386,8 @@
       <c r="E322" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F322" s="1" t="s">
-        <v>51</v>
+      <c r="F322" s="1">
+        <v>0.4993055555555555</v>
       </c>
       <c r="G322" s="1">
         <v>0.54166666666666696</v>
@@ -21544,8 +21451,8 @@
       <c r="E323" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F323" s="1" t="s">
-        <v>50</v>
+      <c r="F323" s="1">
+        <v>0.5</v>
       </c>
       <c r="G323" s="1">
         <v>0.54166666666666696</v>
@@ -21609,8 +21516,8 @@
       <c r="E324" s="1">
         <v>0.25902777777777802</v>
       </c>
-      <c r="F324" s="1" t="s">
-        <v>50</v>
+      <c r="F324" s="1">
+        <v>0.5</v>
       </c>
       <c r="G324" s="1">
         <v>0.54166666666666696</v>
@@ -21674,8 +21581,8 @@
       <c r="E325" s="1">
         <v>0.25972222222222202</v>
       </c>
-      <c r="F325" s="1" t="s">
-        <v>50</v>
+      <c r="F325" s="1">
+        <v>0.5</v>
       </c>
       <c r="G325" s="1">
         <v>0.54166666666666696</v>
@@ -21739,8 +21646,8 @@
       <c r="E326" s="1">
         <v>0.25972222222222202</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>50</v>
+      <c r="F326" s="1">
+        <v>0.5</v>
       </c>
       <c r="G326" s="1">
         <v>0.54166666666666696</v>
@@ -21804,8 +21711,8 @@
       <c r="E327" s="1">
         <v>0.26041666666666702</v>
       </c>
-      <c r="F327" s="1" t="s">
-        <v>49</v>
+      <c r="F327" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G327" s="1">
         <v>0.54166666666666696</v>
@@ -21869,8 +21776,8 @@
       <c r="E328" s="1">
         <v>0.26041666666666702</v>
       </c>
-      <c r="F328" s="1" t="s">
-        <v>49</v>
+      <c r="F328" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G328" s="1">
         <v>0.54166666666666696</v>
@@ -21934,8 +21841,8 @@
       <c r="E329" s="1">
         <v>0.26111111111111102</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>49</v>
+      <c r="F329" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G329" s="1">
         <v>0.54166666666666696</v>
@@ -21999,8 +21906,8 @@
       <c r="E330" s="1">
         <v>0.26111111111111102</v>
       </c>
-      <c r="F330" s="1" t="s">
-        <v>49</v>
+      <c r="F330" s="1">
+        <v>0.50069444444444444</v>
       </c>
       <c r="G330" s="1">
         <v>0.54166666666666696</v>
@@ -22064,8 +21971,8 @@
       <c r="E331" s="1">
         <v>0.26180555555555601</v>
       </c>
-      <c r="F331" s="1" t="s">
-        <v>48</v>
+      <c r="F331" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G331" s="1">
         <v>0.54166666666666696</v>
@@ -22129,8 +22036,8 @@
       <c r="E332" s="1">
         <v>0.26180555555555601</v>
       </c>
-      <c r="F332" s="1" t="s">
-        <v>48</v>
+      <c r="F332" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G332" s="1">
         <v>0.54166666666666696</v>
@@ -22194,8 +22101,8 @@
       <c r="E333" s="1">
         <v>0.26250000000000001</v>
       </c>
-      <c r="F333" s="1" t="s">
-        <v>48</v>
+      <c r="F333" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G333" s="1">
         <v>0.54166666666666696</v>
@@ -22259,8 +22166,8 @@
       <c r="E334" s="1">
         <v>0.26250000000000001</v>
       </c>
-      <c r="F334" s="1" t="s">
-        <v>48</v>
+      <c r="F334" s="1">
+        <v>0.50138888888888888</v>
       </c>
       <c r="G334" s="1">
         <v>0.54166666666666696</v>
@@ -22324,8 +22231,8 @@
       <c r="E335" s="1">
         <v>0.26319444444444401</v>
       </c>
-      <c r="F335" s="1" t="s">
-        <v>47</v>
+      <c r="F335" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G335" s="1">
         <v>0.54166666666666696</v>
@@ -22389,8 +22296,8 @@
       <c r="E336" s="1">
         <v>0.26319444444444401</v>
       </c>
-      <c r="F336" s="1" t="s">
-        <v>47</v>
+      <c r="F336" s="1">
+        <v>0.50208333333333333</v>
       </c>
       <c r="G336" s="1">
         <v>0.54166666666666696</v>
@@ -22454,8 +22361,8 @@
       <c r="E337" s="1">
         <v>0.26388888888888901</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>46</v>
+      <c r="F337" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G337" s="1">
         <v>0.54166666666666696</v>
@@ -22519,8 +22426,8 @@
       <c r="E338" s="1">
         <v>0.26388888888888901</v>
       </c>
-      <c r="F338" s="1" t="s">
-        <v>46</v>
+      <c r="F338" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G338" s="1">
         <v>0.54166666666666696</v>
@@ -22584,8 +22491,8 @@
       <c r="E339" s="1">
         <v>0.264583333333333</v>
       </c>
-      <c r="F339" s="1" t="s">
-        <v>46</v>
+      <c r="F339" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G339" s="1">
         <v>0.54166666666666696</v>
@@ -22649,8 +22556,8 @@
       <c r="E340" s="1">
         <v>0.264583333333333</v>
       </c>
-      <c r="F340" s="1" t="s">
-        <v>46</v>
+      <c r="F340" s="1">
+        <v>0.50277777777777777</v>
       </c>
       <c r="G340" s="1">
         <v>0.54166666666666696</v>
@@ -22714,8 +22621,8 @@
       <c r="E341" s="1">
         <v>0.265277777777778</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>45</v>
+      <c r="F341" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G341" s="1">
         <v>0.54166666666666696</v>
@@ -22779,8 +22686,8 @@
       <c r="E342" s="1">
         <v>0.265277777777778</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>45</v>
+      <c r="F342" s="1">
+        <v>0.50347222222222221</v>
       </c>
       <c r="G342" s="1">
         <v>0.54166666666666696</v>
@@ -22844,8 +22751,8 @@
       <c r="E343" s="1">
         <v>0.265972222222222</v>
       </c>
-      <c r="F343" s="1" t="s">
-        <v>44</v>
+      <c r="F343" s="1">
+        <v>0.50416666666666665</v>
       </c>
       <c r="G343" s="1">
         <v>0.54166666666666696</v>
@@ -22909,8 +22816,8 @@
       <c r="E344" s="1">
         <v>0.265972222222222</v>
       </c>
-      <c r="F344" s="1" t="s">
-        <v>44</v>
+      <c r="F344" s="1">
+        <v>0.50416666666666665</v>
       </c>
       <c r="G344" s="1">
         <v>0.54166666666666696</v>
@@ -22974,8 +22881,8 @@
       <c r="E345" s="1">
         <v>0.266666666666667</v>
       </c>
-      <c r="F345" s="1" t="s">
-        <v>43</v>
+      <c r="F345" s="1">
+        <v>0.50486111111111109</v>
       </c>
       <c r="G345" s="1">
         <v>0.54166666666666696</v>
@@ -23039,8 +22946,8 @@
       <c r="E346" s="1">
         <v>0.266666666666667</v>
       </c>
-      <c r="F346" s="1" t="s">
-        <v>43</v>
+      <c r="F346" s="1">
+        <v>0.50486111111111109</v>
       </c>
       <c r="G346" s="1">
         <v>0.54166666666666696</v>
@@ -23104,8 +23011,8 @@
       <c r="E347" s="1">
         <v>0.26805555555555599</v>
       </c>
-      <c r="F347" s="1" t="s">
-        <v>42</v>
+      <c r="F347" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G347" s="1">
         <v>0.54166666666666696</v>
@@ -23169,8 +23076,8 @@
       <c r="E348" s="1">
         <v>0.26805555555555599</v>
       </c>
-      <c r="F348" s="1" t="s">
-        <v>42</v>
+      <c r="F348" s="1">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G348" s="1">
         <v>0.54166666666666696</v>
@@ -23234,8 +23141,8 @@
       <c r="E349" s="1">
         <v>0.26874999999999999</v>
       </c>
-      <c r="F349" s="1" t="s">
-        <v>41</v>
+      <c r="F349" s="1">
+        <v>0.50624999999999998</v>
       </c>
       <c r="G349" s="1">
         <v>0.54166666666666696</v>
@@ -23299,8 +23206,8 @@
       <c r="E350" s="1">
         <v>0.26874999999999999</v>
       </c>
-      <c r="F350" s="1" t="s">
-        <v>41</v>
+      <c r="F350" s="1">
+        <v>0.50624999999999998</v>
       </c>
       <c r="G350" s="1">
         <v>0.54166666666666696</v>
@@ -23364,8 +23271,8 @@
       <c r="E351" s="1">
         <v>0.26944444444444399</v>
       </c>
-      <c r="F351" s="1" t="s">
-        <v>40</v>
+      <c r="F351" s="1">
+        <v>0.50694444444444442</v>
       </c>
       <c r="G351" s="1">
         <v>0.54166666666666696</v>
@@ -23429,8 +23336,8 @@
       <c r="E352" s="1">
         <v>0.26944444444444399</v>
       </c>
-      <c r="F352" s="1" t="s">
-        <v>40</v>
+      <c r="F352" s="1">
+        <v>0.50694444444444442</v>
       </c>
       <c r="G352" s="1">
         <v>0.54166666666666696</v>
@@ -23494,8 +23401,8 @@
       <c r="E353" s="1">
         <v>0.27013888888888898</v>
       </c>
-      <c r="F353" s="1" t="s">
-        <v>39</v>
+      <c r="F353" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G353" s="1">
         <v>0.54166666666666696</v>
@@ -23559,8 +23466,8 @@
       <c r="E354" s="1">
         <v>0.27013888888888898</v>
       </c>
-      <c r="F354" s="1" t="s">
-        <v>39</v>
+      <c r="F354" s="1">
+        <v>0.50763888888888886</v>
       </c>
       <c r="G354" s="1">
         <v>0.54166666666666696</v>
@@ -23624,8 +23531,8 @@
       <c r="E355" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>38</v>
+      <c r="F355" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G355" s="1">
         <v>0.54166666666666696</v>
@@ -23689,8 +23596,8 @@
       <c r="E356" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="F356" s="1" t="s">
-        <v>38</v>
+      <c r="F356" s="1">
+        <v>0.5083333333333333</v>
       </c>
       <c r="G356" s="1">
         <v>0.54166666666666696</v>
@@ -23754,8 +23661,8 @@
       <c r="E357" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F357" s="1" t="s">
-        <v>37</v>
+      <c r="F357" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G357" s="1">
         <v>0.54166666666666696</v>
@@ -23819,8 +23726,8 @@
       <c r="E358" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F358" s="1" t="s">
-        <v>37</v>
+      <c r="F358" s="1">
+        <v>0.50902777777777775</v>
       </c>
       <c r="G358" s="1">
         <v>0.54166666666666696</v>
@@ -23884,8 +23791,8 @@
       <c r="E359" s="1">
         <v>0.27222222222222198</v>
       </c>
-      <c r="F359" s="1" t="s">
-        <v>36</v>
+      <c r="F359" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G359" s="1">
         <v>0.54166666666666696</v>
@@ -23949,8 +23856,8 @@
       <c r="E360" s="1">
         <v>0.27222222222222198</v>
       </c>
-      <c r="F360" s="1" t="s">
-        <v>36</v>
+      <c r="F360" s="1">
+        <v>0.50972222222222219</v>
       </c>
       <c r="G360" s="1">
         <v>0.54166666666666696</v>
@@ -24014,8 +23921,8 @@
       <c r="E361" s="1">
         <v>0.27291666666666697</v>
       </c>
-      <c r="F361" s="1" t="s">
-        <v>35</v>
+      <c r="F361" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G361" s="1">
         <v>0.54166666666666696</v>
@@ -24079,8 +23986,8 @@
       <c r="E362" s="1">
         <v>0.27291666666666697</v>
       </c>
-      <c r="F362" s="1" t="s">
-        <v>35</v>
+      <c r="F362" s="1">
+        <v>0.51041666666666663</v>
       </c>
       <c r="G362" s="1">
         <v>0.54166666666666696</v>
@@ -24144,8 +24051,8 @@
       <c r="E363" s="1">
         <v>0.27361111111111103</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>34</v>
+      <c r="F363" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G363" s="1">
         <v>0.54166666666666696</v>
@@ -24209,8 +24116,8 @@
       <c r="E364" s="1">
         <v>0.27361111111111103</v>
       </c>
-      <c r="F364" s="1" t="s">
-        <v>34</v>
+      <c r="F364" s="1">
+        <v>0.51111111111111118</v>
       </c>
       <c r="G364" s="1">
         <v>0.54166666666666696</v>
@@ -24274,8 +24181,8 @@
       <c r="E365" s="1">
         <v>0.27430555555555602</v>
       </c>
-      <c r="F365" s="1" t="s">
-        <v>33</v>
+      <c r="F365" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G365" s="1">
         <v>0.54166666666666696</v>
@@ -24339,8 +24246,8 @@
       <c r="E366" s="1">
         <v>0.27430555555555602</v>
       </c>
-      <c r="F366" s="1" t="s">
-        <v>33</v>
+      <c r="F366" s="1">
+        <v>0.51180555555555551</v>
       </c>
       <c r="G366" s="1">
         <v>0.54166666666666696</v>
@@ -24404,8 +24311,8 @@
       <c r="E367" s="1">
         <v>0.27430555555555602</v>
       </c>
-      <c r="F367" s="1" t="s">
-        <v>21</v>
+      <c r="F367" s="1">
+        <v>0.51250000000000007</v>
       </c>
       <c r="G367" s="1">
         <v>0.54166666666666696</v>
@@ -24469,8 +24376,8 @@
       <c r="E370" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F370" s="1" t="s">
-        <v>31</v>
+      <c r="F370" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G370" s="1">
         <v>0.54166666666666696</v>
@@ -24534,8 +24441,8 @@
       <c r="E371" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F371" s="1" t="s">
-        <v>31</v>
+      <c r="F371" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G371" s="1">
         <v>0.54166666666666696</v>
@@ -24599,8 +24506,8 @@
       <c r="E372" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F372" s="1" t="s">
-        <v>31</v>
+      <c r="F372" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G372" s="1">
         <v>0.54166666666666696</v>
@@ -24664,8 +24571,8 @@
       <c r="E373" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F373" s="1" t="s">
-        <v>31</v>
+      <c r="F373" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G373" s="1">
         <v>0.54166666666666696</v>
@@ -24729,8 +24636,8 @@
       <c r="E374" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F374" s="1" t="s">
-        <v>31</v>
+      <c r="F374" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G374" s="1">
         <v>0.54166666666666696</v>
@@ -24794,8 +24701,8 @@
       <c r="E375" s="1">
         <v>0.27152777777777798</v>
       </c>
-      <c r="F375" s="1" t="s">
-        <v>31</v>
+      <c r="F375" s="1">
+        <v>0.51944444444444449</v>
       </c>
       <c r="G375" s="1">
         <v>0.54166666666666696</v>
@@ -24845,5 +24752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/namaz-timings.xlsx
+++ b/excel/namaz-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473105B-4B0B-4482-8850-E41D092DA16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D147E124-C38D-4FAB-871D-D4A5A9A339B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{177D3166-4ABD-4541-AB78-348152F0D8F8}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76418707-A48B-4FA8-AE4A-555DBDCFC2C1}">
   <dimension ref="A1:U375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F376" sqref="F376"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S235" sqref="S235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
